--- a/Program/Other/Sharepoint上傳用/測試FT/L5/L5964 L5604/FT_L5964 L5604.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L5/L5964 L5604/FT_L5964 L5604.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L5\L5964 L5604\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD10494-C6EE-488A-98AE-C70460FC4CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC85AA3E-8ED4-4079-8A7C-CDE2D45F8DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="178">
   <si>
     <t>目錄名稱</t>
   </si>
@@ -143,13 +143,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.62.docx</t>
-  </si>
-  <si>
-    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.62.docx</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>[輸出欄位]戶號</t>
   </si>
   <si>
@@ -662,6 +655,9 @@
   <si>
     <t>連結至【L5963函催明細資料查詢】</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.65.DOCX</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1272,7 @@
   <dimension ref="A1:Q150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1353,16 +1349,16 @@
     </row>
     <row r="2" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>26</v>
@@ -1387,27 +1383,27 @@
         <v>17</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q2" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>27</v>
@@ -1432,33 +1428,33 @@
         <v>17</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q3" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="5" t="s">
@@ -1477,27 +1473,27 @@
         <v>16</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q4" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>30</v>
@@ -1522,36 +1518,36 @@
         <v>16</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>12</v>
@@ -1569,36 +1565,36 @@
         <v>16</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q6" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>12</v>
@@ -1616,37 +1612,37 @@
         <v>16</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q7" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1663,37 +1659,37 @@
         <v>16</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q8" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="H9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1710,7 +1706,7 @@
         <v>16</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1718,31 +1714,31 @@
         <v>23</v>
       </c>
       <c r="Q9" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="H10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1759,7 +1755,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1767,31 +1763,31 @@
         <v>23</v>
       </c>
       <c r="Q10" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="H11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1808,36 +1804,36 @@
         <v>16</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q11" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>12</v>
@@ -1855,36 +1851,36 @@
         <v>16</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q12" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>12</v>
@@ -1902,36 +1898,36 @@
         <v>16</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q13" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>12</v>
@@ -1949,36 +1945,36 @@
         <v>16</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q14" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>12</v>
@@ -1996,36 +1992,36 @@
         <v>16</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q15" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>12</v>
@@ -2043,36 +2039,36 @@
         <v>16</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q16" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>12</v>
@@ -2090,36 +2086,36 @@
         <v>16</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q17" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>12</v>
@@ -2137,37 +2133,37 @@
         <v>16</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q18" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E19" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>44</v>
-      </c>
       <c r="H19" s="5" t="s">
         <v>12</v>
       </c>
@@ -2184,36 +2180,36 @@
         <v>16</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q19" s="11">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>12</v>
@@ -2231,7 +2227,7 @@
         <v>16</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -2239,31 +2235,31 @@
         <v>23</v>
       </c>
       <c r="Q20" s="12">
-        <v>44578</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>111</v>
-      </c>
       <c r="H21" s="5" t="s">
         <v>12</v>
       </c>
@@ -2280,7 +2276,7 @@
         <v>16</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>23</v>
@@ -2291,25 +2287,25 @@
     </row>
     <row r="22" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>12</v>
@@ -2327,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>23</v>
@@ -2338,25 +2334,25 @@
     </row>
     <row r="23" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>12</v>
@@ -2374,7 +2370,7 @@
         <v>16</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>23</v>
@@ -2385,25 +2381,25 @@
     </row>
     <row r="24" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>12</v>
@@ -2421,7 +2417,7 @@
         <v>16</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>23</v>
@@ -2432,25 +2428,25 @@
     </row>
     <row r="25" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>12</v>
@@ -2468,7 +2464,7 @@
         <v>16</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>23</v>
@@ -2479,25 +2475,25 @@
     </row>
     <row r="26" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>12</v>
@@ -2515,7 +2511,7 @@
         <v>16</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>23</v>
@@ -2526,25 +2522,25 @@
     </row>
     <row r="27" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>12</v>
@@ -2562,7 +2558,7 @@
         <v>16</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>23</v>
@@ -2573,25 +2569,25 @@
     </row>
     <row r="28" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>12</v>
@@ -2609,7 +2605,7 @@
         <v>16</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>23</v>
@@ -2620,25 +2616,25 @@
     </row>
     <row r="29" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>12</v>
@@ -2656,7 +2652,7 @@
         <v>16</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>23</v>
@@ -2667,25 +2663,25 @@
     </row>
     <row r="30" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>12</v>
@@ -2703,7 +2699,7 @@
         <v>16</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>23</v>
@@ -2714,25 +2710,25 @@
     </row>
     <row r="31" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>12</v>
@@ -2750,7 +2746,7 @@
         <v>16</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>23</v>
@@ -2761,25 +2757,25 @@
     </row>
     <row r="32" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>12</v>
@@ -2797,7 +2793,7 @@
         <v>16</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>23</v>
@@ -2808,25 +2804,25 @@
     </row>
     <row r="33" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>12</v>
@@ -2844,7 +2840,7 @@
         <v>16</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>23</v>
@@ -2855,25 +2851,25 @@
     </row>
     <row r="34" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>12</v>
@@ -2891,7 +2887,7 @@
         <v>16</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>23</v>
@@ -2902,25 +2898,25 @@
     </row>
     <row r="35" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>12</v>
@@ -2938,7 +2934,7 @@
         <v>16</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>23</v>
@@ -2949,25 +2945,25 @@
     </row>
     <row r="36" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G36" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>12</v>
@@ -2985,7 +2981,7 @@
         <v>16</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>23</v>
@@ -2996,25 +2992,25 @@
     </row>
     <row r="37" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G37" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>12</v>
@@ -3032,7 +3028,7 @@
         <v>16</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>23</v>
@@ -3043,25 +3039,25 @@
     </row>
     <row r="38" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G38" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>12</v>
@@ -3079,7 +3075,7 @@
         <v>16</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>23</v>
@@ -3090,25 +3086,25 @@
     </row>
     <row r="39" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E39" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="F39" s="34" t="s">
-        <v>143</v>
-      </c>
       <c r="G39" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>12</v>
@@ -3126,7 +3122,7 @@
         <v>16</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>23</v>
@@ -3137,25 +3133,25 @@
     </row>
     <row r="40" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E40" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F40" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F40" s="34" t="s">
-        <v>144</v>
-      </c>
       <c r="G40" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>12</v>
@@ -3173,7 +3169,7 @@
         <v>16</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>23</v>
@@ -3184,26 +3180,26 @@
     </row>
     <row r="41" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F41" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="H41" s="5" t="s">
         <v>12</v>
       </c>
@@ -3220,7 +3216,7 @@
         <v>16</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>23</v>
@@ -3231,25 +3227,25 @@
     </row>
     <row r="42" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F42" s="36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>12</v>
@@ -3267,7 +3263,7 @@
         <v>16</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>23</v>
@@ -3278,25 +3274,25 @@
     </row>
     <row r="43" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F43" s="36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>12</v>
@@ -3314,7 +3310,7 @@
         <v>16</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>23</v>
@@ -3325,22 +3321,22 @@
     </row>
     <row r="44" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F44" s="36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>12</v>
@@ -3358,7 +3354,7 @@
         <v>16</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>23</v>
@@ -3369,22 +3365,22 @@
     </row>
     <row r="45" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>12</v>
@@ -3402,7 +3398,7 @@
         <v>16</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>23</v>
@@ -3413,22 +3409,22 @@
     </row>
     <row r="46" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F46" s="36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>12</v>
@@ -3446,7 +3442,7 @@
         <v>16</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>23</v>
@@ -3457,22 +3453,22 @@
     </row>
     <row r="47" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>12</v>
@@ -3490,7 +3486,7 @@
         <v>16</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>23</v>
@@ -3501,22 +3497,22 @@
     </row>
     <row r="48" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>12</v>
@@ -3534,7 +3530,7 @@
         <v>16</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>23</v>
@@ -3545,25 +3541,25 @@
     </row>
     <row r="49" spans="1:17" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>12</v>
@@ -3581,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>23</v>
@@ -3592,25 +3588,25 @@
     </row>
     <row r="50" spans="1:17" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G50" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>12</v>
@@ -3628,7 +3624,7 @@
         <v>16</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>23</v>
@@ -3639,25 +3635,25 @@
     </row>
     <row r="51" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H51" s="10" t="s">
         <v>12</v>
@@ -3675,7 +3671,7 @@
         <v>16</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
@@ -3688,25 +3684,25 @@
     </row>
     <row r="52" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>12</v>
@@ -3724,7 +3720,7 @@
         <v>16</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>23</v>
@@ -3735,25 +3731,25 @@
     </row>
     <row r="53" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>12</v>
@@ -3771,7 +3767,7 @@
         <v>16</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>23</v>
@@ -3782,25 +3778,25 @@
     </row>
     <row r="54" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>12</v>
@@ -3818,7 +3814,7 @@
         <v>16</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>23</v>
@@ -3829,25 +3825,25 @@
     </row>
     <row r="55" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>12</v>
@@ -3865,7 +3861,7 @@
         <v>16</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>23</v>
@@ -3876,25 +3872,25 @@
     </row>
     <row r="56" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>12</v>
@@ -3912,7 +3908,7 @@
         <v>16</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>23</v>
@@ -3923,25 +3919,25 @@
     </row>
     <row r="57" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>12</v>
@@ -3959,7 +3955,7 @@
         <v>16</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>23</v>
@@ -3970,25 +3966,25 @@
     </row>
     <row r="58" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>12</v>
@@ -4006,7 +4002,7 @@
         <v>16</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>23</v>
@@ -4017,25 +4013,25 @@
     </row>
     <row r="59" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>12</v>
@@ -4053,7 +4049,7 @@
         <v>16</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>23</v>
@@ -4064,25 +4060,25 @@
     </row>
     <row r="60" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>12</v>
@@ -4100,7 +4096,7 @@
         <v>16</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>23</v>
@@ -4111,25 +4107,25 @@
     </row>
     <row r="61" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>12</v>
@@ -4147,7 +4143,7 @@
         <v>16</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>23</v>
@@ -4158,25 +4154,25 @@
     </row>
     <row r="62" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>12</v>
@@ -4194,7 +4190,7 @@
         <v>16</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>23</v>
@@ -4205,25 +4201,25 @@
     </row>
     <row r="63" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>12</v>
@@ -4241,7 +4237,7 @@
         <v>16</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>23</v>
@@ -4252,25 +4248,25 @@
     </row>
     <row r="64" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G64" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>12</v>
@@ -4288,7 +4284,7 @@
         <v>16</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>23</v>
@@ -4299,25 +4295,25 @@
     </row>
     <row r="65" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>12</v>
@@ -4335,7 +4331,7 @@
         <v>16</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>23</v>
@@ -4346,25 +4342,25 @@
     </row>
     <row r="66" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>12</v>
@@ -4382,7 +4378,7 @@
         <v>16</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>23</v>
@@ -4393,25 +4389,25 @@
     </row>
     <row r="67" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>12</v>
@@ -4429,7 +4425,7 @@
         <v>16</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>23</v>
@@ -4440,25 +4436,25 @@
     </row>
     <row r="68" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>12</v>
@@ -4476,7 +4472,7 @@
         <v>16</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>23</v>
@@ -4487,25 +4483,25 @@
     </row>
     <row r="69" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F69" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G69" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>12</v>
@@ -4523,7 +4519,7 @@
         <v>16</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>23</v>
@@ -4534,25 +4530,25 @@
     </row>
     <row r="70" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E70" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F70" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="F70" s="34" t="s">
-        <v>143</v>
-      </c>
       <c r="G70" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>12</v>
@@ -4570,7 +4566,7 @@
         <v>16</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>23</v>
@@ -4581,25 +4577,25 @@
     </row>
     <row r="71" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E71" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F71" s="34" t="s">
-        <v>144</v>
-      </c>
       <c r="G71" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>12</v>
@@ -4617,7 +4613,7 @@
         <v>16</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>23</v>
@@ -4628,22 +4624,22 @@
     </row>
     <row r="72" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>12</v>
@@ -4661,7 +4657,7 @@
         <v>16</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>23</v>
@@ -4672,22 +4668,22 @@
     </row>
     <row r="73" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E73" s="35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" s="36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>12</v>
@@ -4705,7 +4701,7 @@
         <v>16</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>23</v>
@@ -4716,22 +4712,22 @@
     </row>
     <row r="74" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E74" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>12</v>
@@ -4749,7 +4745,7 @@
         <v>16</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P74" s="3" t="s">
         <v>23</v>
@@ -4760,22 +4756,22 @@
     </row>
     <row r="75" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E75" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" s="35" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>12</v>
@@ -4793,7 +4789,7 @@
         <v>16</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>23</v>
@@ -4804,22 +4800,22 @@
     </row>
     <row r="76" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>12</v>
@@ -4837,7 +4833,7 @@
         <v>16</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>23</v>
@@ -4848,25 +4844,25 @@
     </row>
     <row r="77" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H77" s="5" t="s">
         <v>12</v>
@@ -4884,7 +4880,7 @@
         <v>16</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P77" s="3" t="s">
         <v>23</v>
@@ -4895,25 +4891,25 @@
     </row>
     <row r="78" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H78" s="5" t="s">
         <v>12</v>
@@ -4931,7 +4927,7 @@
         <v>16</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>23</v>
@@ -4942,25 +4938,25 @@
     </row>
     <row r="79" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G79" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>12</v>
@@ -4978,7 +4974,7 @@
         <v>16</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
@@ -4991,25 +4987,25 @@
     </row>
     <row r="80" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G80" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H80" s="5" t="s">
         <v>12</v>
@@ -5027,7 +5023,7 @@
         <v>16</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P80" s="3" t="s">
         <v>23</v>
@@ -5038,25 +5034,25 @@
     </row>
     <row r="81" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>12</v>
@@ -5074,7 +5070,7 @@
         <v>16</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>23</v>
@@ -5085,25 +5081,25 @@
     </row>
     <row r="82" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>12</v>
@@ -5121,7 +5117,7 @@
         <v>16</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P82" s="3" t="s">
         <v>23</v>
@@ -5132,25 +5128,25 @@
     </row>
     <row r="83" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H83" s="5" t="s">
         <v>12</v>
@@ -5168,7 +5164,7 @@
         <v>16</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>23</v>
@@ -5179,25 +5175,25 @@
     </row>
     <row r="84" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>12</v>
@@ -5215,7 +5211,7 @@
         <v>16</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>23</v>
@@ -5226,25 +5222,25 @@
     </row>
     <row r="85" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H85" s="5" t="s">
         <v>12</v>
@@ -5262,7 +5258,7 @@
         <v>16</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P85" s="3" t="s">
         <v>23</v>
@@ -5273,25 +5269,25 @@
     </row>
     <row r="86" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H86" s="5" t="s">
         <v>12</v>
@@ -5309,7 +5305,7 @@
         <v>16</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>23</v>
@@ -5320,25 +5316,25 @@
     </row>
     <row r="87" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H87" s="5" t="s">
         <v>12</v>
@@ -5356,7 +5352,7 @@
         <v>16</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P87" s="3" t="s">
         <v>23</v>
@@ -5367,25 +5363,25 @@
     </row>
     <row r="88" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>12</v>
@@ -5403,7 +5399,7 @@
         <v>16</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P88" s="3" t="s">
         <v>23</v>
@@ -5414,25 +5410,25 @@
     </row>
     <row r="89" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H89" s="5" t="s">
         <v>12</v>
@@ -5450,7 +5446,7 @@
         <v>16</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>23</v>
@@ -5461,25 +5457,25 @@
     </row>
     <row r="90" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>12</v>
@@ -5497,7 +5493,7 @@
         <v>16</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>23</v>
@@ -5508,25 +5504,25 @@
     </row>
     <row r="91" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>12</v>
@@ -5544,7 +5540,7 @@
         <v>16</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>23</v>
@@ -5555,25 +5551,25 @@
     </row>
     <row r="92" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G92" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H92" s="5" t="s">
         <v>12</v>
@@ -5591,7 +5587,7 @@
         <v>16</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>23</v>
@@ -5602,25 +5598,25 @@
     </row>
     <row r="93" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>12</v>
@@ -5638,7 +5634,7 @@
         <v>16</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P93" s="3" t="s">
         <v>23</v>
@@ -5649,25 +5645,25 @@
     </row>
     <row r="94" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G94" s="26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>12</v>
@@ -5685,7 +5681,7 @@
         <v>16</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>23</v>
@@ -5696,25 +5692,25 @@
     </row>
     <row r="95" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F95" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G95" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H95" s="5" t="s">
         <v>12</v>
@@ -5732,7 +5728,7 @@
         <v>16</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P95" s="3" t="s">
         <v>23</v>
@@ -5743,25 +5739,25 @@
     </row>
     <row r="96" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G96" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H96" s="5" t="s">
         <v>12</v>
@@ -5779,7 +5775,7 @@
         <v>16</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P96" s="3" t="s">
         <v>23</v>
@@ -5790,25 +5786,25 @@
     </row>
     <row r="97" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F97" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G97" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H97" s="5" t="s">
         <v>12</v>
@@ -5826,7 +5822,7 @@
         <v>16</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P97" s="3" t="s">
         <v>23</v>
@@ -5837,25 +5833,25 @@
     </row>
     <row r="98" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E98" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F98" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="F98" s="34" t="s">
-        <v>143</v>
-      </c>
       <c r="G98" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H98" s="5" t="s">
         <v>12</v>
@@ -5873,7 +5869,7 @@
         <v>16</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>23</v>
@@ -5884,25 +5880,25 @@
     </row>
     <row r="99" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E99" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F99" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="F99" s="34" t="s">
-        <v>144</v>
-      </c>
       <c r="G99" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H99" s="5" t="s">
         <v>12</v>
@@ -5920,7 +5916,7 @@
         <v>16</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P99" s="3" t="s">
         <v>23</v>
@@ -5931,26 +5927,26 @@
     </row>
     <row r="100" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F100" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="G100" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="H100" s="5" t="s">
         <v>12</v>
       </c>
@@ -5967,7 +5963,7 @@
         <v>16</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>23</v>
@@ -5978,25 +5974,25 @@
     </row>
     <row r="101" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F101" s="36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>12</v>
@@ -6014,7 +6010,7 @@
         <v>16</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>23</v>
@@ -6025,25 +6021,25 @@
     </row>
     <row r="102" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E102" s="35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F102" s="36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>12</v>
@@ -6061,7 +6057,7 @@
         <v>16</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>23</v>
@@ -6072,22 +6068,22 @@
     </row>
     <row r="103" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E103" s="36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F103" s="36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>12</v>
@@ -6105,7 +6101,7 @@
         <v>16</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P103" s="3" t="s">
         <v>23</v>
@@ -6116,22 +6112,22 @@
     </row>
     <row r="104" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E104" s="35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F104" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>12</v>
@@ -6149,7 +6145,7 @@
         <v>16</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P104" s="3" t="s">
         <v>23</v>
@@ -6160,22 +6156,22 @@
     </row>
     <row r="105" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E105" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F105" s="36" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>12</v>
@@ -6193,7 +6189,7 @@
         <v>16</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P105" s="3" t="s">
         <v>23</v>
@@ -6204,22 +6200,22 @@
     </row>
     <row r="106" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E106" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F106" s="36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>12</v>
@@ -6237,7 +6233,7 @@
         <v>16</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P106" s="3" t="s">
         <v>23</v>
@@ -6248,22 +6244,22 @@
     </row>
     <row r="107" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E107" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F107" s="36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>12</v>
@@ -6281,7 +6277,7 @@
         <v>16</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P107" s="3" t="s">
         <v>23</v>
@@ -6292,25 +6288,25 @@
     </row>
     <row r="108" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H108" s="5" t="s">
         <v>12</v>
@@ -6328,7 +6324,7 @@
         <v>16</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P108" s="3" t="s">
         <v>23</v>
@@ -6339,25 +6335,25 @@
     </row>
     <row r="109" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H109" s="5" t="s">
         <v>12</v>
@@ -6375,7 +6371,7 @@
         <v>16</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P109" s="3" t="s">
         <v>23</v>
@@ -6386,25 +6382,25 @@
     </row>
     <row r="110" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D110" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G110" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H110" s="10" t="s">
         <v>12</v>
@@ -6422,7 +6418,7 @@
         <v>16</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
@@ -6435,25 +6431,25 @@
     </row>
     <row r="111" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F111" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>12</v>
@@ -6471,7 +6467,7 @@
         <v>16</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P111" s="3" t="s">
         <v>23</v>
@@ -6482,25 +6478,25 @@
     </row>
     <row r="112" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H112" s="5" t="s">
         <v>12</v>
@@ -6518,7 +6514,7 @@
         <v>16</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P112" s="3" t="s">
         <v>23</v>
@@ -6529,25 +6525,25 @@
     </row>
     <row r="113" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>12</v>
@@ -6565,7 +6561,7 @@
         <v>16</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P113" s="3" t="s">
         <v>23</v>
@@ -6576,25 +6572,25 @@
     </row>
     <row r="114" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G114" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H114" s="5" t="s">
         <v>12</v>
@@ -6612,7 +6608,7 @@
         <v>16</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P114" s="3" t="s">
         <v>23</v>
@@ -6623,25 +6619,25 @@
     </row>
     <row r="115" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H115" s="5" t="s">
         <v>12</v>
@@ -6659,7 +6655,7 @@
         <v>16</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P115" s="3" t="s">
         <v>23</v>
@@ -6670,25 +6666,25 @@
     </row>
     <row r="116" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H116" s="5" t="s">
         <v>12</v>
@@ -6706,7 +6702,7 @@
         <v>16</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P116" s="3" t="s">
         <v>23</v>
@@ -6717,25 +6713,25 @@
     </row>
     <row r="117" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A117" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H117" s="5" t="s">
         <v>12</v>
@@ -6753,7 +6749,7 @@
         <v>16</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P117" s="3" t="s">
         <v>23</v>
@@ -6764,25 +6760,25 @@
     </row>
     <row r="118" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A118" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H118" s="5" t="s">
         <v>12</v>
@@ -6800,7 +6796,7 @@
         <v>16</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P118" s="3" t="s">
         <v>23</v>
@@ -6811,25 +6807,25 @@
     </row>
     <row r="119" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A119" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H119" s="5" t="s">
         <v>12</v>
@@ -6847,7 +6843,7 @@
         <v>16</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P119" s="3" t="s">
         <v>23</v>
@@ -6858,25 +6854,25 @@
     </row>
     <row r="120" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G120" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H120" s="5" t="s">
         <v>12</v>
@@ -6894,7 +6890,7 @@
         <v>16</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P120" s="3" t="s">
         <v>23</v>
@@ -6905,25 +6901,25 @@
     </row>
     <row r="121" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F121" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H121" s="5" t="s">
         <v>12</v>
@@ -6941,7 +6937,7 @@
         <v>16</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P121" s="3" t="s">
         <v>23</v>
@@ -6952,25 +6948,25 @@
     </row>
     <row r="122" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F122" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H122" s="5" t="s">
         <v>12</v>
@@ -6988,7 +6984,7 @@
         <v>16</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P122" s="3" t="s">
         <v>23</v>
@@ -6999,25 +6995,25 @@
     </row>
     <row r="123" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E123" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F123" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H123" s="5" t="s">
         <v>12</v>
@@ -7035,7 +7031,7 @@
         <v>16</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P123" s="3" t="s">
         <v>23</v>
@@ -7046,25 +7042,25 @@
     </row>
     <row r="124" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E124" s="35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F124" s="35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>12</v>
@@ -7082,7 +7078,7 @@
         <v>16</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P124" s="3" t="s">
         <v>23</v>
@@ -7093,25 +7089,25 @@
     </row>
     <row r="125" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F125" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>12</v>
@@ -7129,7 +7125,7 @@
         <v>16</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P125" s="3" t="s">
         <v>23</v>
@@ -7140,25 +7136,25 @@
     </row>
     <row r="126" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A126" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E126" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F126" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>12</v>
@@ -7176,7 +7172,7 @@
         <v>16</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P126" s="3" t="s">
         <v>23</v>
@@ -7187,25 +7183,25 @@
     </row>
     <row r="127" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E127" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F127" s="35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H127" s="5" t="s">
         <v>12</v>
@@ -7223,7 +7219,7 @@
         <v>16</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P127" s="3" t="s">
         <v>23</v>
@@ -7234,25 +7230,25 @@
     </row>
     <row r="128" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F128" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H128" s="5" t="s">
         <v>12</v>
@@ -7270,7 +7266,7 @@
         <v>16</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P128" s="3" t="s">
         <v>23</v>
@@ -7281,25 +7277,25 @@
     </row>
     <row r="129" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F129" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H129" s="5" t="s">
         <v>12</v>
@@ -7317,7 +7313,7 @@
         <v>16</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P129" s="3" t="s">
         <v>23</v>
@@ -7328,25 +7324,25 @@
     </row>
     <row r="130" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F130" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G130" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H130" s="10" t="s">
         <v>12</v>
@@ -7364,7 +7360,7 @@
         <v>16</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N130" s="9"/>
       <c r="O130" s="9"/>
@@ -7377,25 +7373,25 @@
     </row>
     <row r="131" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F131" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G131" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>12</v>
@@ -7413,7 +7409,7 @@
         <v>16</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P131" s="3" t="s">
         <v>23</v>
@@ -7424,25 +7420,25 @@
     </row>
     <row r="132" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E132" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F132" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>12</v>
@@ -7460,7 +7456,7 @@
         <v>16</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P132" s="3" t="s">
         <v>23</v>
@@ -7471,25 +7467,25 @@
     </row>
     <row r="133" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E133" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F133" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>12</v>
@@ -7507,7 +7503,7 @@
         <v>16</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P133" s="3" t="s">
         <v>23</v>
@@ -7518,25 +7514,25 @@
     </row>
     <row r="134" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E134" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F134" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H134" s="5" t="s">
         <v>12</v>
@@ -7554,7 +7550,7 @@
         <v>16</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P134" s="3" t="s">
         <v>23</v>
@@ -7565,25 +7561,25 @@
     </row>
     <row r="135" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F135" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>12</v>
@@ -7601,7 +7597,7 @@
         <v>16</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P135" s="3" t="s">
         <v>23</v>
@@ -7612,25 +7608,25 @@
     </row>
     <row r="136" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G136" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>12</v>
@@ -7648,7 +7644,7 @@
         <v>16</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P136" s="3" t="s">
         <v>23</v>
@@ -7659,25 +7655,25 @@
     </row>
     <row r="137" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H137" s="5" t="s">
         <v>12</v>
@@ -7695,7 +7691,7 @@
         <v>16</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P137" s="3" t="s">
         <v>23</v>
@@ -7706,25 +7702,25 @@
     </row>
     <row r="138" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H138" s="5" t="s">
         <v>12</v>
@@ -7742,7 +7738,7 @@
         <v>16</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P138" s="3" t="s">
         <v>23</v>
@@ -7753,25 +7749,25 @@
     </row>
     <row r="139" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>12</v>
@@ -7789,7 +7785,7 @@
         <v>16</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P139" s="3" t="s">
         <v>23</v>
@@ -7800,25 +7796,25 @@
     </row>
     <row r="140" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E140" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F140" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H140" s="5" t="s">
         <v>12</v>
@@ -7836,7 +7832,7 @@
         <v>16</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P140" s="3" t="s">
         <v>23</v>
@@ -7847,25 +7843,25 @@
     </row>
     <row r="141" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F141" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>12</v>
@@ -7883,7 +7879,7 @@
         <v>16</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P141" s="3" t="s">
         <v>23</v>
@@ -7894,25 +7890,25 @@
     </row>
     <row r="142" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A142" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F142" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H142" s="5" t="s">
         <v>12</v>
@@ -7930,7 +7926,7 @@
         <v>16</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P142" s="3" t="s">
         <v>23</v>
@@ -7941,25 +7937,25 @@
     </row>
     <row r="143" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A143" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E143" s="36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F143" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G143" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>12</v>
@@ -7977,7 +7973,7 @@
         <v>16</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P143" s="3" t="s">
         <v>23</v>
@@ -7988,25 +7984,25 @@
     </row>
     <row r="144" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A144" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E144" s="35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F144" s="35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G144" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>12</v>
@@ -8024,7 +8020,7 @@
         <v>16</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P144" s="3" t="s">
         <v>23</v>
@@ -8035,25 +8031,25 @@
     </row>
     <row r="145" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E145" s="35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F145" s="35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G145" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>12</v>
@@ -8071,7 +8067,7 @@
         <v>16</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P145" s="3" t="s">
         <v>23</v>
@@ -8082,25 +8078,25 @@
     </row>
     <row r="146" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E146" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F146" s="35" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G146" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H146" s="5" t="s">
         <v>12</v>
@@ -8118,7 +8114,7 @@
         <v>16</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P146" s="3" t="s">
         <v>23</v>
@@ -8129,25 +8125,25 @@
     </row>
     <row r="147" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E147" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F147" s="35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G147" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>12</v>
@@ -8165,7 +8161,7 @@
         <v>16</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P147" s="3" t="s">
         <v>23</v>
@@ -8176,25 +8172,25 @@
     </row>
     <row r="148" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F148" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>12</v>
@@ -8212,7 +8208,7 @@
         <v>16</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P148" s="3" t="s">
         <v>23</v>
@@ -8223,25 +8219,25 @@
     </row>
     <row r="149" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A149" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F149" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>12</v>
@@ -8259,7 +8255,7 @@
         <v>16</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P149" s="3" t="s">
         <v>23</v>
@@ -8270,25 +8266,25 @@
     </row>
     <row r="150" spans="1:17" ht="81" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F150" s="29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G150" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H150" s="10" t="s">
         <v>12</v>
@@ -8306,7 +8302,7 @@
         <v>16</v>
       </c>
       <c r="M150" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N150" s="9"/>
       <c r="O150" s="9"/>

--- a/Program/Other/Sharepoint上傳用/測試FT/L5/L5964 L5604/FT_L5964 L5604.xlsx
+++ b/Program/Other/Sharepoint上傳用/測試FT/L5/L5964 L5604/FT_L5964 L5604.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\測試FT\L5\L5964 L5604\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC85AA3E-8ED4-4079-8A7C-CDE2D45F8DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F66CCA-03FF-4773-8FA8-3D78043C1392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="181">
   <si>
     <t>目錄名稱</t>
   </si>
@@ -586,10 +586,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1.限輸入代碼，檢核條件：依選單/V(H)2.CollLaw.Remark1.限輸入文數字2.CollLaw.Memo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>1.自動顯示原值，可以修改數字2.CollLaw.Amount</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -603,10 +599,6 @@
   </si>
   <si>
     <t>1.自動顯示原值，可以修改代碼，檢核條件：依選單/V(H)2.CollLaw.LegalProg</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.自動顯示原值，可以修改代碼，檢核條件：  依選單/V(H)2.CollLaw.Remark1.自動顯示原值，可以修改文字2.CollLaw.Memo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -627,16 +619,9 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>1.自動顯示原複製法務進度資料2.限輸入代碼，檢核條件：依選單/V(H)3.CollLaw.Remark1.自動顯示原複製法務進  度資料2.限輸入文數字3.CollLaw.Memo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>CollLaw.RecordDate</t>
   </si>
   <si>
-    <t>CollLaw.RemarkCollLaw.Memo</t>
-  </si>
-  <si>
     <t>1.自動顯示2.CollLaw.ClCode1  CollLaw.ClCode2  CollLaw.ClNo3.帶出[建物門牌/土地座  落/擔保品類別]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -658,6 +643,35 @@
   </si>
   <si>
     <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.65.DOCX</t>
+  </si>
+  <si>
+    <t>1.限輸入代碼，檢核條件：依選單/V(H)2.CollLaw.Remark
+1.限輸入文數字，若[法務進度]=99時則不可空白2.CollLaw.Memo</t>
+  </si>
+  <si>
+    <t>1.自動顯示原值，可以修改代碼，檢核條件：  依選單/V(H)2.CollLaw.Remark
+1.自動顯示原值，可以修改文字，若[法務進度]=99時則不可空白2.CollLaw.Memo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他記錄-其他記錄內容</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自動顯示原複製法務進度資料2.限輸入代碼，檢核條件：依選單/V(H)3.CollLaw.Remark
+1.自動顯示原複製法務進度資料2.限輸入文數字，若[法務進度]=99時則不可空白3.CollLaw.Memo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollLaw.Remark + CollLaw.Memo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.65.DOCX</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>製作依據之需求規格書與版本：PJ201800012_URS_5管理性作業_V1.66.docx</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1286,7 @@
   <dimension ref="A1:Q150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="N150" sqref="N150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2" x14ac:dyDescent="0.2"/>
@@ -1383,7 +1397,7 @@
         <v>17</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>23</v>
@@ -1428,7 +1442,7 @@
         <v>17</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>23</v>
@@ -1473,7 +1487,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>23</v>
@@ -1518,7 +1532,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>23</v>
@@ -1565,7 +1579,7 @@
         <v>16</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>23</v>
@@ -1612,7 +1626,7 @@
         <v>16</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>23</v>
@@ -1659,7 +1673,7 @@
         <v>16</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>23</v>
@@ -1706,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1755,7 +1769,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1804,7 +1818,7 @@
         <v>16</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>23</v>
@@ -1851,7 +1865,7 @@
         <v>16</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>23</v>
@@ -1898,7 +1912,7 @@
         <v>16</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>23</v>
@@ -1945,7 +1959,7 @@
         <v>16</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>23</v>
@@ -1992,7 +2006,7 @@
         <v>16</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>23</v>
@@ -2039,7 +2053,7 @@
         <v>16</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>23</v>
@@ -2086,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>23</v>
@@ -2133,7 +2147,7 @@
         <v>16</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>23</v>
@@ -2180,7 +2194,7 @@
         <v>16</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>23</v>
@@ -2227,7 +2241,7 @@
         <v>16</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -2276,13 +2290,13 @@
         <v>16</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q21" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2323,13 +2337,13 @@
         <v>16</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q22" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2370,13 +2384,13 @@
         <v>16</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q23" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2417,13 +2431,13 @@
         <v>16</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q24" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2464,13 +2478,13 @@
         <v>16</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q25" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2511,13 +2525,13 @@
         <v>16</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q26" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2558,13 +2572,13 @@
         <v>16</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q27" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2605,13 +2619,13 @@
         <v>16</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q28" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2652,13 +2666,13 @@
         <v>16</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q29" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2699,13 +2713,13 @@
         <v>16</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q30" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2746,13 +2760,13 @@
         <v>16</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q31" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2793,13 +2807,13 @@
         <v>16</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q32" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2840,13 +2854,13 @@
         <v>16</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q33" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2863,13 +2877,13 @@
         <v>99</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>12</v>
@@ -2887,13 +2901,13 @@
         <v>16</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q34" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2910,13 +2924,13 @@
         <v>99</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G35" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>12</v>
@@ -2934,13 +2948,13 @@
         <v>16</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q35" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -2981,13 +2995,13 @@
         <v>16</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q36" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3028,13 +3042,13 @@
         <v>16</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q37" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3075,13 +3089,13 @@
         <v>16</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q38" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3122,13 +3136,13 @@
         <v>16</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q39" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3169,13 +3183,13 @@
         <v>16</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q40" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3216,13 +3230,13 @@
         <v>16</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q41" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3263,13 +3277,13 @@
         <v>16</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q42" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3310,13 +3324,13 @@
         <v>16</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q43" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3354,13 +3368,13 @@
         <v>16</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q44" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3398,13 +3412,13 @@
         <v>16</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q45" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3442,13 +3456,13 @@
         <v>16</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P46" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q46" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3486,13 +3500,13 @@
         <v>16</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q47" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3509,10 +3523,10 @@
         <v>99</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="F48" s="36" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>12</v>
@@ -3530,13 +3544,13 @@
         <v>16</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q48" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.2">
@@ -3577,13 +3591,13 @@
         <v>16</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>23</v>
       </c>
       <c r="Q49" s="32">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="4" customFormat="1" ht="81" x14ac:dyDescent="0.2">
@@ -3624,13 +3638,13 @@
         <v>16</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>23</v>
       </c>
       <c r="Q50" s="32">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3671,7 +3685,7 @@
         <v>16</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
@@ -3679,7 +3693,7 @@
         <v>23</v>
       </c>
       <c r="Q51" s="12">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3720,13 +3734,13 @@
         <v>16</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q52" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3767,13 +3781,13 @@
         <v>16</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P53" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q53" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3814,13 +3828,13 @@
         <v>16</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q54" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3861,13 +3875,13 @@
         <v>16</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q55" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3908,13 +3922,13 @@
         <v>16</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q56" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -3955,13 +3969,13 @@
         <v>16</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q57" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4002,13 +4016,13 @@
         <v>16</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q58" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4049,13 +4063,13 @@
         <v>16</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q59" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4096,13 +4110,13 @@
         <v>16</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P60" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q60" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4143,13 +4157,13 @@
         <v>16</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P61" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q61" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4190,13 +4204,13 @@
         <v>16</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q62" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4237,13 +4251,13 @@
         <v>16</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P63" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q63" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4284,13 +4298,13 @@
         <v>16</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q64" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4307,13 +4321,13 @@
         <v>99</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>12</v>
@@ -4331,13 +4345,13 @@
         <v>16</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P65" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q65" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4354,13 +4368,13 @@
         <v>99</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>12</v>
@@ -4378,13 +4392,13 @@
         <v>16</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P66" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q66" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4425,13 +4439,13 @@
         <v>16</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P67" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q67" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4472,13 +4486,13 @@
         <v>16</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P68" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q68" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4519,13 +4533,13 @@
         <v>16</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P69" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q69" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4566,13 +4580,13 @@
         <v>16</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P70" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q70" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4613,13 +4627,13 @@
         <v>16</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P71" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q71" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4639,7 +4653,7 @@
         <v>155</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H72" s="5" t="s">
         <v>12</v>
@@ -4657,13 +4671,13 @@
         <v>16</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P72" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q72" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4683,7 +4697,7 @@
         <v>143</v>
       </c>
       <c r="F73" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H73" s="5" t="s">
         <v>12</v>
@@ -4701,13 +4715,13 @@
         <v>16</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P73" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q73" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4727,7 +4741,7 @@
         <v>144</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>12</v>
@@ -4745,13 +4759,13 @@
         <v>16</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P74" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q74" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4771,7 +4785,7 @@
         <v>145</v>
       </c>
       <c r="F75" s="35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>12</v>
@@ -4789,13 +4803,13 @@
         <v>16</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P75" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q75" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4812,10 +4826,10 @@
         <v>99</v>
       </c>
       <c r="E76" s="35" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="H76" s="5" t="s">
         <v>12</v>
@@ -4833,13 +4847,13 @@
         <v>16</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P76" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q76" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4880,13 +4894,13 @@
         <v>16</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P77" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q77" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4927,13 +4941,13 @@
         <v>16</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q78" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -4974,7 +4988,7 @@
         <v>16</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
@@ -4982,7 +4996,7 @@
         <v>23</v>
       </c>
       <c r="Q79" s="12">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5002,7 +5016,7 @@
         <v>43</v>
       </c>
       <c r="F80" s="21" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="G80" s="23" t="s">
         <v>113</v>
@@ -5023,13 +5037,13 @@
         <v>16</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P80" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q80" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5070,13 +5084,13 @@
         <v>16</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q81" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5117,13 +5131,13 @@
         <v>16</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P82" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q82" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5164,13 +5178,13 @@
         <v>16</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q83" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5211,13 +5225,13 @@
         <v>16</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q84" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5258,13 +5272,13 @@
         <v>16</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P85" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q85" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5305,13 +5319,13 @@
         <v>16</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P86" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q86" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5352,13 +5366,13 @@
         <v>16</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P87" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q87" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5399,13 +5413,13 @@
         <v>16</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P88" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q88" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5446,13 +5460,13 @@
         <v>16</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q89" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5493,13 +5507,13 @@
         <v>16</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P90" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q90" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5540,13 +5554,13 @@
         <v>16</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q91" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5587,13 +5601,13 @@
         <v>16</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q92" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5610,13 +5624,13 @@
         <v>99</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G93" s="26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>12</v>
@@ -5634,13 +5648,13 @@
         <v>16</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P93" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q93" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5657,13 +5671,13 @@
         <v>99</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G94" s="26" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>12</v>
@@ -5681,13 +5695,13 @@
         <v>16</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q94" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5728,13 +5742,13 @@
         <v>16</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P95" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q95" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5775,13 +5789,13 @@
         <v>16</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P96" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q96" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5822,13 +5836,13 @@
         <v>16</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P97" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q97" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5869,13 +5883,13 @@
         <v>16</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P98" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q98" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5916,13 +5930,13 @@
         <v>16</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P99" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q99" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -5963,13 +5977,13 @@
         <v>16</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q100" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -6010,13 +6024,13 @@
         <v>16</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q101" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -6057,13 +6071,13 @@
         <v>16</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q102" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -6083,7 +6097,7 @@
         <v>154</v>
       </c>
       <c r="F103" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>12</v>
@@ -6101,13 +6115,13 @@
         <v>16</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P103" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q103" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -6127,7 +6141,7 @@
         <v>143</v>
       </c>
       <c r="F104" s="36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>12</v>
@@ -6145,13 +6159,13 @@
         <v>16</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P104" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q104" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -6171,7 +6185,7 @@
         <v>144</v>
       </c>
       <c r="F105" s="36" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H105" s="5" t="s">
         <v>12</v>
@@ -6189,13 +6203,13 @@
         <v>16</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P105" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q105" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -6215,7 +6229,7 @@
         <v>145</v>
       </c>
       <c r="F106" s="36" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H106" s="5" t="s">
         <v>12</v>
@@ -6233,13 +6247,13 @@
         <v>16</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P106" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q106" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -6256,10 +6270,10 @@
         <v>99</v>
       </c>
       <c r="E107" s="35" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="F107" s="36" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="H107" s="5" t="s">
         <v>12</v>
@@ -6277,13 +6291,13 @@
         <v>16</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P107" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q107" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -6324,13 +6338,13 @@
         <v>16</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P108" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q108" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -6371,13 +6385,13 @@
         <v>16</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="P109" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q109" s="11">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -6418,7 +6432,7 @@
         <v>16</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
@@ -6426,7 +6440,7 @@
         <v>23</v>
       </c>
       <c r="Q110" s="12">
-        <v>44578</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="81" x14ac:dyDescent="0.2">
@@ -6467,7 +6481,7 @@
         <v>16</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P111" s="3" t="s">
         <v>23</v>
@@ -6514,7 +6528,7 @@
         <v>16</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P112" s="3" t="s">
         <v>23</v>
@@ -6561,7 +6575,7 @@
         <v>16</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P113" s="3" t="s">
         <v>23</v>
@@ -7010,7 +7024,7 @@
         <v>155</v>
       </c>
       <c r="F123" s="36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G123" s="15" t="s">
         <v>42</v>
@@ -7057,7 +7071,7 @@
         <v>143</v>
       </c>
       <c r="F124" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G124" s="15" t="s">
         <v>42</v>
@@ -7198,7 +7212,7 @@
         <v>97</v>
       </c>
       <c r="F127" s="35" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G127" s="15" t="s">
         <v>42</v>
@@ -7360,7 +7374,7 @@
         <v>16</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N130" s="9"/>
       <c r="O130" s="9"/>
@@ -7409,7 +7423,7 @@
         <v>16</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P131" s="3" t="s">
         <v>23</v>
@@ -7456,7 +7470,7 @@
         <v>16</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P132" s="3" t="s">
         <v>23</v>
@@ -7503,7 +7517,7 @@
         <v>16</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P133" s="3" t="s">
         <v>23</v>
@@ -7952,7 +7966,7 @@
         <v>155</v>
       </c>
       <c r="F143" s="36" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G143" s="15" t="s">
         <v>42</v>
@@ -7999,7 +8013,7 @@
         <v>143</v>
       </c>
       <c r="F144" s="35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G144" s="15" t="s">
         <v>42</v>
@@ -8140,7 +8154,7 @@
         <v>97</v>
       </c>
       <c r="F147" s="35" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G147" s="15" t="s">
         <v>42</v>
@@ -8302,7 +8316,7 @@
         <v>16</v>
       </c>
       <c r="M150" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N150" s="9"/>
       <c r="O150" s="9"/>
